--- a/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/shk-excel.xlsx
+++ b/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/shk-excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558978EA-4205-4300-8456-FCA2F13B8561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E875A-1BB8-4055-8D7C-22632E59E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>Баркод товара</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>OZN1489755557</t>
-  </si>
-  <si>
-    <t>OZN1489755095</t>
   </si>
   <si>
     <t>OZN1336986249</t>
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,17 +1648,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
